--- a/Assets/Spreadsheet/Scripts/Map.xlsx
+++ b/Assets/Spreadsheet/Scripts/Map.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Scripts&gt;Map" sheetId="1" r:id="Rdf69a781d0a84403"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Scripts&gt;Map" sheetId="1" r:id="Rc0d7e938963545b3"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -13,9 +13,16 @@
     <x:t xml:space="preserve">Template</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">@hideUI QuestLogUI if:game_chapter==7
-@wait 1 if:game_chapter==7
-@set "game_chapter = -1" if:game_chapter==7
+    <x:t xml:space="preserve">
+@clearChoice ButtonArea
+@hideChars time:0
+@hideUI MapButtonUI time:0
+@showUI QuestLogUI if:game_chapter!=-1
+@if game_chapter==7
+@hideUI QuestLogUI
+@wait 1
+@set "game_chapter = -1"
+@endIf
 @hidePrinter 
 @choice  button:Map/Loc1 pos:-500,300 handler:ButtonArea goto:Loc1
 @choice  button:Map/Loc2 pos:700,125 handler:ButtonArea goto:Loc2

--- a/Assets/Spreadsheet/Scripts/Map.xlsx
+++ b/Assets/Spreadsheet/Scripts/Map.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Scripts&gt;Map" sheetId="1" r:id="Rc0d7e938963545b3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Scripts&gt;Map" sheetId="1" r:id="R8534b8ab75014d84"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -13,10 +13,9 @@
     <x:t xml:space="preserve">Template</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">
-@clearChoice ButtonArea
-@hideChars time:0
-@hideUI MapButtonUI time:0
+    <x:t xml:space="preserve">@clearChoice ButtonArea wait:false
+@hideChars time:0 wait:false
+@hideUI MapButtonUI time:0 wait:false
 @showUI QuestLogUI if:game_chapter!=-1
 @if game_chapter==7
 @hideUI QuestLogUI

--- a/Assets/Spreadsheet/Scripts/Map.xlsx
+++ b/Assets/Spreadsheet/Scripts/Map.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Scripts&gt;Map" sheetId="1" r:id="R8534b8ab75014d84"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Scripts&gt;Map" sheetId="1" r:id="R2062451bdefe4c5b"/>
   </x:sheets>
 </x:workbook>
 </file>
